--- a/dataprep_model-training_evaluation_Inference-scripts/Data-REHAB24-6_New/Segmentation_new.xlsx
+++ b/dataprep_model-training_evaluation_Inference-scripts/Data-REHAB24-6_New/Segmentation_new.xlsx
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="M190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="M191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="M193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="M194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -11307,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="M231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="M232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -11401,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="M233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="M234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -12388,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="M254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="M255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -12482,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="M256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="M257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -12576,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="M258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="M259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -13422,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="M276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -13469,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="M277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="M278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="M279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -13610,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="M280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="M298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="M299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="M300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="M301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="M302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="M303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -14738,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="M304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -15631,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="M323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -15678,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="M324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -15725,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="M325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -15772,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="M326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="M327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -15866,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="M328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="M334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -16195,7 +16195,7 @@
         <v>0</v>
       </c>
       <c r="M335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="M336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -16289,7 +16289,7 @@
         <v>0</v>
       </c>
       <c r="M337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -16336,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="M338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
